--- a/src/test-data/data for sign-up chat.xlsx
+++ b/src/test-data/data for sign-up chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gyansetu\G_TestCase001\src\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE424876-B56E-4676-B50E-ECDBC2819549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497590C8-F54A-47E4-88D1-145918126D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,10 @@
     <t>All is well</t>
   </si>
   <si>
-    <t>ashish123@yopmail.com</t>
-  </si>
-  <si>
-    <t>ashishl VB</t>
+    <t>sarasu123@yopmail.com</t>
+  </si>
+  <si>
+    <t>Sarasu VB</t>
   </si>
 </sst>
 </file>
@@ -242,12 +242,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFA8AFC0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -596,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -623,7 +621,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="9">
-        <v>7675443219</v>
+        <v>7675443123</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -673,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D667A-AC66-4967-A7EA-AD5EBA28D551}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test-data/data for sign-up chat.xlsx
+++ b/src/test-data/data for sign-up chat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gyansetu\G_TestCase001\src\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497590C8-F54A-47E4-88D1-145918126D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7530C2-0D7C-4F26-B97A-F765E4BC72AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,10 @@
     <t>All is well</t>
   </si>
   <si>
-    <t>sarasu123@yopmail.com</t>
-  </si>
-  <si>
     <t>Sarasu VB</t>
+  </si>
+  <si>
+    <t>grukagriffere-8073@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -242,10 +242,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -618,10 +620,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9">
-        <v>7675443123</v>
+        <v>7675443124</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -671,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D667A-AC66-4967-A7EA-AD5EBA28D551}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -790,7 +792,7 @@
     </row>
     <row r="2" spans="1:28" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5">
         <v>26</v>

--- a/src/test-data/data for sign-up chat.xlsx
+++ b/src/test-data/data for sign-up chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gyansetu\G_TestCase001\src\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7530C2-0D7C-4F26-B97A-F765E4BC72AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911CBF2-C914-41B1-AB58-4BC3CCE1C010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,18 +132,12 @@
     <t>DOByear</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>sass</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Ashwathi N</t>
-  </si>
-  <si>
     <t>AkhilJith</t>
   </si>
   <si>
@@ -189,10 +183,16 @@
     <t>All is well</t>
   </si>
   <si>
-    <t>Sarasu VB</t>
-  </si>
-  <si>
-    <t>grukagriffere-8073@yopmail.com</t>
+    <t>shrathcll12@yopmail.com</t>
+  </si>
+  <si>
+    <t>Sharath Cll</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Shari Cll</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -620,10 +620,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9">
-        <v>7675443124</v>
+        <v>7675443123</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -666,6 +666,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -674,7 +675,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -718,7 +719,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -745,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>16</v>
@@ -792,37 +793,37 @@
     </row>
     <row r="2" spans="1:28" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5">
         <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>12</v>
@@ -834,19 +835,19 @@
         <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="5">
         <v>9876655555</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T2" s="5">
         <v>55</v>
@@ -855,25 +856,25 @@
         <v>23</v>
       </c>
       <c r="V2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="Z2" s="5">
         <v>788764</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:28">

--- a/src/test-data/data for sign-up chat.xlsx
+++ b/src/test-data/data for sign-up chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gyansetu\G_TestCase001\src\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911CBF2-C914-41B1-AB58-4BC3CCE1C010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B8483-09F6-41F5-9E11-DFC4A1B56E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -623,7 +623,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="9">
-        <v>7675443123</v>
+        <v>7675443125</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -674,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D667A-AC66-4967-A7EA-AD5EBA28D551}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/src/test-data/data for sign-up chat.xlsx
+++ b/src/test-data/data for sign-up chat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gyansetu\G_TestCase001\src\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B8483-09F6-41F5-9E11-DFC4A1B56E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ACE34B-9E49-45FB-8B94-2F7F2D8DA8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Sign-Up chat" sheetId="5" r:id="rId2"/>
-    <sheet name="School" sheetId="2" r:id="rId3"/>
-    <sheet name="College" sheetId="3" r:id="rId4"/>
+    <sheet name="SchoolUser_Registration" sheetId="1" r:id="rId1"/>
+    <sheet name="Sign-Up chat_for_StudentUser" sheetId="5" r:id="rId2"/>
+    <sheet name="CollegeUser_Registration" sheetId="3" r:id="rId3"/>
+    <sheet name="Sign-Up chat_for_CollageUser" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="151">
   <si>
     <t>Email ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>School Name</t>
   </si>
   <si>
-    <t>SN School</t>
-  </si>
-  <si>
     <t>Board</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Select Teacher</t>
   </si>
   <si>
-    <t>Shananth Kutttu</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>AkhilJith</t>
-  </si>
-  <si>
     <t>Himanshu</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Malayalam</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>Mathematics</t>
   </si>
   <si>
@@ -183,23 +171,323 @@
     <t>All is well</t>
   </si>
   <si>
-    <t>shrathcll12@yopmail.com</t>
-  </si>
-  <si>
-    <t>Sharath Cll</t>
-  </si>
-  <si>
     <t>September</t>
   </si>
   <si>
     <t>Shari Cll</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>KTU(Kerala Technical University)</t>
+  </si>
+  <si>
+    <t>University Name</t>
+  </si>
+  <si>
+    <t>Institute</t>
+  </si>
+  <si>
+    <t>MESITAM</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Semester 1</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Ummukulsu AF</t>
+  </si>
+  <si>
+    <t>mesitamstu005@yopmail.com</t>
+  </si>
+  <si>
+    <t>Akhil J</t>
+  </si>
+  <si>
+    <t>Abhijth CV</t>
+  </si>
+  <si>
+    <t>Shar Cll</t>
+  </si>
+  <si>
+    <t>Shuu Cll</t>
+  </si>
+  <si>
+    <t>ji Cll</t>
+  </si>
+  <si>
+    <t>VGuk Cll</t>
+  </si>
+  <si>
+    <t>Sjhg Cll</t>
+  </si>
+  <si>
+    <t>dkjfb</t>
+  </si>
+  <si>
+    <t>fhvskjd</t>
+  </si>
+  <si>
+    <t>kdjsbckx</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>jch</t>
+  </si>
+  <si>
+    <t>HDFSK</t>
+  </si>
+  <si>
+    <t>Basic Electronics</t>
+  </si>
+  <si>
+    <t>good mark</t>
+  </si>
+  <si>
+    <t>Kijf Cll</t>
+  </si>
+  <si>
+    <t>Jith</t>
+  </si>
+  <si>
+    <t>shu</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Centum</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>lJith</t>
+  </si>
+  <si>
+    <t>MGM School</t>
+  </si>
+  <si>
+    <t>vrunmgmSchool@yopmail.com</t>
+  </si>
+  <si>
+    <t>arunmgmSchool@yopmail.com</t>
+  </si>
+  <si>
+    <t>abhijthmgmSchool@yopmail.com</t>
+  </si>
+  <si>
+    <t>aravidhmgmSchool@yopmail.com</t>
+  </si>
+  <si>
+    <t>shanmgmSchool@yopmail.com</t>
+  </si>
+  <si>
+    <t>Shaji V</t>
+  </si>
+  <si>
+    <t>Varun Banu</t>
+  </si>
+  <si>
+    <t>Arun AP</t>
+  </si>
+  <si>
+    <t>Abijith AP</t>
+  </si>
+  <si>
+    <t>Aravidh CV</t>
+  </si>
+  <si>
+    <t>Shan AP</t>
+  </si>
+  <si>
+    <t>mesitamstuVinu@yopmail.com</t>
+  </si>
+  <si>
+    <t>mesitamstuSabu@yopmail.com</t>
+  </si>
+  <si>
+    <t>mesitamstuAnu@yopmail.com</t>
+  </si>
+  <si>
+    <t>mesitamstuFathima@yopmail.com</t>
+  </si>
+  <si>
+    <t>Sabu B</t>
+  </si>
+  <si>
+    <t>Anu K</t>
+  </si>
+  <si>
+    <t>Fathima HH</t>
+  </si>
+  <si>
+    <t>ELECTRONICS AND COMMUNICATION ENGINEERING</t>
+  </si>
+  <si>
+    <t>Nimish Babu</t>
+  </si>
+  <si>
+    <t>muralivmgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>manucpmgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>vanamamgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>akhilnnmgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>mesitamstuAnamika@yopmail.com</t>
+  </si>
+  <si>
+    <t>mesitamstuArjun@yopmail.com</t>
+  </si>
+  <si>
+    <t>mesitamstuRajaR@yopmail.com</t>
+  </si>
+  <si>
+    <t>Nimisha Babu</t>
+  </si>
+  <si>
+    <t>mesitamstujohnp@yopmail.com</t>
+  </si>
+  <si>
+    <t>vaanummgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>sirivv0mgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>sammgmschool@yopmail.com</t>
+  </si>
+  <si>
+    <t>Santhosh SV</t>
+  </si>
+  <si>
+    <t>mesitamsturamuj@yopmail.com</t>
+  </si>
+  <si>
+    <t>Ramu J</t>
+  </si>
+  <si>
+    <t>santhoshkkSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>akhilnnmgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>sammgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>sirivv0mgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>vanamamgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>manucpmgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>muralivmgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>vaanummgmschoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>vrunmgmSchoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>arunmgmSchoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>abhijthmgmSchoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>aravidhmgmSchoolSreeBhudhaHSS@yopmail.com</t>
+  </si>
+  <si>
+    <t>SreeBhudha HSS</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Sumayya CC</t>
+  </si>
+  <si>
+    <t>Akhil NN</t>
+  </si>
+  <si>
+    <t>Sam M</t>
+  </si>
+  <si>
+    <t>Siri V</t>
+  </si>
+  <si>
+    <t>Vanam M</t>
+  </si>
+  <si>
+    <t>Manu CP</t>
+  </si>
+  <si>
+    <t>Murali CN</t>
+  </si>
+  <si>
+    <t>Vaanu M</t>
+  </si>
+  <si>
+    <t>Varun J</t>
+  </si>
+  <si>
+    <t>Arun V</t>
+  </si>
+  <si>
+    <t>samvins12@yopmail.com</t>
+  </si>
+  <si>
+    <t>Anna University</t>
+  </si>
+  <si>
+    <t>VINS Engineering</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>ENGINEERING PHYSICS</t>
+  </si>
+  <si>
+    <t>Akhil Jith</t>
+  </si>
+  <si>
+    <t>Remo RU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +537,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FFA8AFC0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -281,11 +610,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,18 +644,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,75 +1004,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.88671875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="15.6">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="9">
-        <v>7675443125</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:7" ht="21.6">
+      <c r="A2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="32">
+        <v>9876512457</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+    <row r="3" spans="1:7" ht="21.6">
+      <c r="A3" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="32">
+        <v>9897621456</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.6">
+      <c r="A4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="32">
+        <v>9876721334</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.6">
+      <c r="A5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="32">
+        <v>9786215468</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.6">
+      <c r="A6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="32">
+        <v>9842312644</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21.6">
+      <c r="A7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="32">
+        <v>4256536760</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.6">
+      <c r="A8" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="32">
+        <v>4563564576</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="21.6">
+      <c r="A9" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="32">
+        <v>2423555622</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="21.6">
+      <c r="A10" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="32">
+        <v>4353463412</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.6">
+      <c r="A11" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="32">
+        <v>9664512490</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.6">
+      <c r="A12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="32">
+        <v>8755424309</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.6">
+      <c r="A13" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="32">
+        <v>8754435344</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" ht="21.6">
+      <c r="A14" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="33">
+        <v>8934657126</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="21.6">
+      <c r="A15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="33">
+        <v>8767654356</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.6">
+      <c r="A16" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="33">
+        <v>6742528778</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.6">
+      <c r="A17" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="33">
+        <v>8978457834</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.6">
+      <c r="A18" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="33">
+        <v>9873452465</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.6">
+      <c r="A19" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="33">
+        <v>9878654555</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.6">
+      <c r="A20" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="33">
+        <v>9865623084</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.6">
+      <c r="A21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="30">
+        <v>7673447962</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21.6">
+      <c r="A22" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="30">
+        <v>9876044446</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21.6">
+      <c r="A23" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="30">
+        <v>9876744566</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.6">
+      <c r="A24" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="30">
+        <v>9865554333</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.6">
+      <c r="A25" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="30">
+        <v>8675433556</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,15 +1316,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D667A-AC66-4967-A7EA-AD5EBA28D551}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
@@ -691,12 +1335,12 @@
     <col min="9" max="9" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="8.88671875" style="2"/>
     <col min="16" max="16" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="8.88671875" style="2"/>
@@ -710,16 +1354,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -743,289 +1387,1458 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="28.8">
+      <c r="A2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="16">
+        <v>26</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>9876655555</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="T2" s="16">
+        <v>55</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="16">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="C3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>9878766661</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="26">
+        <v>64</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="16">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="16">
         <v>2005</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="L4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>7456342333</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="26">
+        <v>55</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A5" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="16">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="Q5" s="26">
+        <v>3523535346</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="26">
+        <v>32</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="16">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>7546235232</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="26">
+        <v>32</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="16">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>9678564423</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="26">
+        <v>66</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="16">
+        <v>26</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>2534654478</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="26">
+        <v>44</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="16">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>9758564134</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="26">
+        <v>11</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="16">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>9678564135</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="26">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="U10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A11" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="16">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="O11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>9687456342</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="26">
+        <v>33</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="W11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="X11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="1" customFormat="1" ht="15.6">
+      <c r="A12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="26"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+    </row>
+    <row r="13" spans="1:28" ht="28.8">
+      <c r="A13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="16">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="16">
         <v>9876655555</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="16">
+        <v>55</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="Y13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="5">
+      <c r="Z13" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="28.8">
+      <c r="A14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="16">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>9876655555</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="16">
         <v>55</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="U14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="28.8">
+      <c r="A15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="16">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>9876655555</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="16">
+        <v>55</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="28.8">
+      <c r="A16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="16">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>9876655555</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="16">
+        <v>55</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>788764</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="28.8">
+      <c r="A17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="5">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="D17" s="5">
+        <v>1995</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>4782373777</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="5">
+        <v>55</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="28.8">
+      <c r="A18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="16">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2005</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="5">
+      <c r="H18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>9876655555</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T18" s="16">
+        <v>55</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="16">
         <v>788764</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="AA18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1033,25 +2846,931 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE9E3F6-5F20-4253-9DAC-993EBBA255AD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8DD64-AF8B-4BA8-8DA4-5733BD431885}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="A2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8544258765</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21.6">
+      <c r="A3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9874325551</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9874563234</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9086743245</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8963213456</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="A7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9875729991</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6">
+      <c r="A8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7675443670</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9876544461</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="A10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9876623334</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6">
+      <c r="A11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="7">
+        <v>9865345678</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6">
+      <c r="A12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9865345554</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8DD64-AF8B-4BA8-8DA4-5733BD431885}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DF428-D35B-4AD0-B271-F84AACF14E9C}">
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.88671875" style="9"/>
+    <col min="13" max="16" width="10.77734375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="10.77734375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="46.8">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="96">
+      <c r="A2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="5">
+        <v>55</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="96">
+      <c r="A3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="5">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="5">
+        <v>55</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="96">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="5">
+        <v>55</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="96">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="5">
+        <v>55</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="96">
+      <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="5">
+        <v>55</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="96">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="5">
+        <v>55</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="96">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2024</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="5">
+        <v>9876655555</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="5">
+        <v>55</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>788764</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>